--- a/Excel/MatriceDiCorrelazione.xlsx
+++ b/Excel/MatriceDiCorrelazione.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>DailyRate</t>
-  </si>
-  <si>
     <t>DistanceFromHome</t>
-  </si>
-  <si>
-    <t>HourlyRate</t>
   </si>
   <si>
     <t>JobLevel</t>
@@ -419,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,14 +462,8 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,843 +471,653 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.02532901797830215</v>
+        <v>-0.008857333568200893</v>
       </c>
       <c r="D2">
-        <v>0.003264882828881342</v>
+        <v>0.02989870493551243</v>
       </c>
       <c r="E2">
-        <v>0.01000547871161747</v>
+        <v>0.3267140792001175</v>
       </c>
       <c r="F2">
-        <v>0.03400658919203812</v>
+        <v>0.0572008629072032</v>
       </c>
       <c r="G2">
-        <v>0.3627655845057168</v>
+        <v>-0.003714506044751713</v>
       </c>
       <c r="H2">
-        <v>0.04001828077504102</v>
+        <v>-0.008439819385264004</v>
       </c>
       <c r="I2">
-        <v>0.005552559318702932</v>
+        <v>0.01659797726465686</v>
       </c>
       <c r="J2">
-        <v>-0.01510080764737246</v>
+        <v>0.03914635616502417</v>
       </c>
       <c r="K2">
-        <v>0.02781768180549307</v>
+        <v>0.06368588886901116</v>
       </c>
       <c r="L2">
-        <v>0.02921765508056752</v>
+        <v>0.1554945818052659</v>
       </c>
       <c r="M2">
-        <v>0.01945088278080056</v>
+        <v>0.0361474200956196</v>
       </c>
       <c r="N2">
-        <v>0.2536911025000236</v>
+        <v>0.02653141937264484</v>
       </c>
       <c r="O2">
-        <v>0.04368984462161956</v>
-      </c>
-      <c r="P2">
-        <v>0.008420565447638929</v>
-      </c>
-      <c r="Q2">
-        <v>0.02386506008422327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.01593119658695778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.02532901797830215</v>
+        <v>-0.008857333568200893</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.004985337352552667</v>
+        <v>0.03084675392377743</v>
       </c>
       <c r="E3">
-        <v>0.02338142152832035</v>
+        <v>-0.06914822571365474</v>
       </c>
       <c r="F3">
-        <v>0.002966334855111674</v>
+        <v>0.03640557532628927</v>
       </c>
       <c r="G3">
-        <v>-0.009285884507520093</v>
+        <v>-0.01332220389611767</v>
       </c>
       <c r="H3">
-        <v>-0.03218160152258179</v>
+        <v>0.05807576115516504</v>
       </c>
       <c r="I3">
-        <v>0.03815343427940975</v>
+        <v>0.02409044437849948</v>
       </c>
       <c r="J3">
-        <v>0.02270367749633493</v>
+        <v>0.008579173556845588</v>
       </c>
       <c r="K3">
-        <v>0.04214279637720676</v>
+        <v>-0.04607139697250794</v>
       </c>
       <c r="L3">
-        <v>0.01451473870632088</v>
+        <v>-0.01027333808085267</v>
       </c>
       <c r="M3">
-        <v>0.001542705737490361</v>
+        <v>0.01323054174881991</v>
       </c>
       <c r="N3">
-        <v>-0.002239534165529527</v>
+        <v>-0.01706797551455956</v>
       </c>
       <c r="O3">
-        <v>0.009932014960094186</v>
-      </c>
-      <c r="P3">
-        <v>-0.03322898478777196</v>
-      </c>
-      <c r="Q3">
-        <v>-0.02636317822883774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.003188072445159056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003264882828881342</v>
+        <v>0.02989870493551243</v>
       </c>
       <c r="C4">
-        <v>-0.004985337352552667</v>
+        <v>0.03084675392377743</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.03113058561176599</v>
+        <v>-0.008841221533042688</v>
       </c>
       <c r="F4">
-        <v>0.005302730554496231</v>
+        <v>0.04570866851970576</v>
       </c>
       <c r="G4">
-        <v>-0.00661301056096434</v>
+        <v>0.1484113909491027</v>
       </c>
       <c r="H4">
-        <v>0.02747286354888411</v>
+        <v>-0.04031963892910632</v>
       </c>
       <c r="I4">
-        <v>-0.02925080419729297</v>
+        <v>0.06094255804964673</v>
       </c>
       <c r="J4">
-        <v>0.0402353774591931</v>
+        <v>0.7556400151399706</v>
       </c>
       <c r="K4">
-        <v>0.04487199885318145</v>
+        <v>-0.005325263578312308</v>
       </c>
       <c r="L4">
-        <v>0.004628425863783848</v>
+        <v>0.03157247845139757</v>
       </c>
       <c r="M4">
-        <v>0.006329809123048819</v>
+        <v>0.3532729856602586</v>
       </c>
       <c r="N4">
-        <v>0.02765700471305558</v>
+        <v>0.305550050465785</v>
       </c>
       <c r="O4">
-        <v>0.01884499910894566</v>
-      </c>
-      <c r="P4">
-        <v>0.01002883594311535</v>
-      </c>
-      <c r="Q4">
-        <v>0.01440604843062998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3465863746126382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01000547871161747</v>
+        <v>0.3267140792001175</v>
       </c>
       <c r="C5">
-        <v>0.02338142152832035</v>
+        <v>-0.06914822571365474</v>
       </c>
       <c r="D5">
-        <v>0.03113058561176599</v>
+        <v>-0.008841221533042688</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.02785348640554741</v>
+        <v>-0.0109627746710919</v>
       </c>
       <c r="G5">
-        <v>0.01145488727859455</v>
+        <v>-0.02158582847570841</v>
       </c>
       <c r="H5">
-        <v>-0.01529674955064973</v>
+        <v>0.01765821365974848</v>
       </c>
       <c r="I5">
-        <v>0.02215688339019685</v>
+        <v>-0.04589090530029091</v>
       </c>
       <c r="J5">
-        <v>-0.009061986253740113</v>
+        <v>0.01691176046973935</v>
       </c>
       <c r="K5">
-        <v>0.05026339906511976</v>
+        <v>-0.01630120899770322</v>
       </c>
       <c r="L5">
-        <v>-0.002333681823322244</v>
+        <v>0.3515978767813258</v>
       </c>
       <c r="M5">
-        <v>-0.0219392114743644</v>
+        <v>0.007048234196493934</v>
       </c>
       <c r="N5">
-        <v>0.005521569534920615</v>
+        <v>-0.003662115831493388</v>
       </c>
       <c r="O5">
-        <v>-0.02410622020878489</v>
-      </c>
-      <c r="P5">
-        <v>-0.02671558606433524</v>
-      </c>
-      <c r="Q5">
-        <v>-0.02012320018406603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>-0.005183992533121788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03400658919203812</v>
+        <v>0.0572008629072032</v>
       </c>
       <c r="C6">
-        <v>0.002966334855111674</v>
+        <v>0.03640557532628927</v>
       </c>
       <c r="D6">
-        <v>0.005302730554496231</v>
+        <v>0.04570866851970576</v>
       </c>
       <c r="E6">
-        <v>-0.02785348640554741</v>
+        <v>-0.0109627746710919</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.004495630620582652</v>
+        <v>0.02462115485353616</v>
       </c>
       <c r="H6">
-        <v>0.03956295104568432</v>
+        <v>-0.002913121596655281</v>
       </c>
       <c r="I6">
-        <v>0.142501123810489</v>
+        <v>-0.02617646381808889</v>
       </c>
       <c r="J6">
-        <v>-0.03473049227941841</v>
+        <v>0.03051814809457776</v>
       </c>
       <c r="K6">
-        <v>0.01398391052861526</v>
+        <v>-0.01463665194864401</v>
       </c>
       <c r="L6">
-        <v>0.7822078045362819</v>
+        <v>-0.04790638322387353</v>
       </c>
       <c r="M6">
-        <v>-0.01249013525752356</v>
+        <v>0.00155029237545091</v>
       </c>
       <c r="N6">
-        <v>0.03972893960164186</v>
+        <v>0.002229370646597225</v>
       </c>
       <c r="O6">
-        <v>0.3894467328766719</v>
-      </c>
-      <c r="P6">
-        <v>0.3538853469641045</v>
-      </c>
-      <c r="Q6">
-        <v>0.3752806077657277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>-0.03950150510378449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3627655845057168</v>
+        <v>-0.003714506044751713</v>
       </c>
       <c r="C7">
-        <v>-0.009285884507520093</v>
+        <v>-0.01332220389611767</v>
       </c>
       <c r="D7">
-        <v>-0.00661301056096434</v>
+        <v>0.1484113909491027</v>
       </c>
       <c r="E7">
-        <v>0.01145488727859455</v>
+        <v>-0.02158582847570841</v>
       </c>
       <c r="F7">
-        <v>0.004495630620582652</v>
+        <v>0.02462115485353616</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.00877575200547295</v>
+        <v>-0.01122481823876873</v>
       </c>
       <c r="I7">
-        <v>-0.01399115663778988</v>
+        <v>0.02711834718339705</v>
       </c>
       <c r="J7">
-        <v>0.01385119279655067</v>
+        <v>0.2641089183292218</v>
       </c>
       <c r="K7">
-        <v>-0.005116299039876134</v>
+        <v>-0.0479863676876927</v>
       </c>
       <c r="L7">
-        <v>-0.005930634923724926</v>
+        <v>0.001754640395353893</v>
       </c>
       <c r="M7">
-        <v>0.009815698657528092</v>
+        <v>-0.1407550551384995</v>
       </c>
       <c r="N7">
-        <v>0.4110996686051839</v>
+        <v>-0.09688066490159955</v>
       </c>
       <c r="O7">
-        <v>0.02118052251389568</v>
-      </c>
-      <c r="P7">
-        <v>-0.01936168857403885</v>
-      </c>
-      <c r="Q7">
-        <v>-0.002297765705227358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>-0.1566191417391231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04001828077504102</v>
+        <v>-0.008439819385264004</v>
       </c>
       <c r="C8">
-        <v>-0.03218160152258179</v>
+        <v>0.05807576115516504</v>
       </c>
       <c r="D8">
-        <v>0.02747286354888411</v>
+        <v>-0.04031963892910632</v>
       </c>
       <c r="E8">
-        <v>-0.01529674955064973</v>
+        <v>0.01765821365974848</v>
       </c>
       <c r="F8">
-        <v>0.03956295104568432</v>
+        <v>-0.002913121596655281</v>
       </c>
       <c r="G8">
-        <v>-0.00877575200547295</v>
+        <v>-0.01122481823876873</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.01752135341557158</v>
+        <v>0.02399140087552394</v>
       </c>
       <c r="J8">
-        <v>-0.006429345946711371</v>
+        <v>-0.02287310702854754</v>
       </c>
       <c r="K8">
-        <v>-0.03432283020666096</v>
+        <v>0.02461263696417808</v>
       </c>
       <c r="L8">
-        <v>0.0264424711760154</v>
+        <v>0.01341550807937787</v>
       </c>
       <c r="M8">
-        <v>-0.02424729502127004</v>
+        <v>-0.01773261586147536</v>
       </c>
       <c r="N8">
-        <v>-0.05077318700199899</v>
+        <v>-0.03377818856896619</v>
       </c>
       <c r="O8">
-        <v>-0.01281487437047168</v>
-      </c>
-      <c r="P8">
-        <v>0.001566799514676169</v>
-      </c>
-      <c r="Q8">
-        <v>-0.03674590533676931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>-0.015860418996134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.005552559318702932</v>
+        <v>0.01659797726465686</v>
       </c>
       <c r="C9">
-        <v>0.03815343427940975</v>
+        <v>0.02409044437849948</v>
       </c>
       <c r="D9">
-        <v>-0.02925080419729297</v>
+        <v>0.06094255804964673</v>
       </c>
       <c r="E9">
-        <v>0.02215688339019685</v>
+        <v>-0.04589090530029091</v>
       </c>
       <c r="F9">
-        <v>0.142501123810489</v>
+        <v>-0.02617646381808889</v>
       </c>
       <c r="G9">
-        <v>-0.01399115663778988</v>
+        <v>0.02711834718339705</v>
       </c>
       <c r="H9">
-        <v>0.01752135341557158</v>
+        <v>0.02399140087552394</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>-0.01023830935992558</v>
+        <v>0.06445940701886643</v>
       </c>
       <c r="K9">
-        <v>0.03007547509689789</v>
+        <v>0.002901956036818502</v>
       </c>
       <c r="L9">
-        <v>0.2376385897847941</v>
+        <v>-0.04280202996630432</v>
       </c>
       <c r="M9">
-        <v>0.02099646581389249</v>
+        <v>0.04583339099319188</v>
       </c>
       <c r="N9">
-        <v>0.02829192800548991</v>
+        <v>0.01815254383835799</v>
       </c>
       <c r="O9">
-        <v>-0.09075393370080823</v>
-      </c>
-      <c r="P9">
-        <v>-0.03681389238350811</v>
-      </c>
-      <c r="Q9">
-        <v>-0.1103191554377321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.02286076368136328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.01510080764737246</v>
+        <v>0.03914635616502417</v>
       </c>
       <c r="C10">
-        <v>0.02270367749633493</v>
+        <v>0.008579173556845588</v>
       </c>
       <c r="D10">
-        <v>0.0402353774591931</v>
+        <v>0.7556400151399706</v>
       </c>
       <c r="E10">
-        <v>-0.009061986253740113</v>
+        <v>0.01691176046973935</v>
       </c>
       <c r="F10">
-        <v>-0.03473049227941841</v>
+        <v>0.03051814809457776</v>
       </c>
       <c r="G10">
-        <v>0.01385119279655067</v>
+        <v>0.2641089183292218</v>
       </c>
       <c r="H10">
-        <v>-0.006429345946711371</v>
+        <v>-0.02287310702854754</v>
       </c>
       <c r="I10">
-        <v>-0.01023830935992558</v>
+        <v>0.06445940701886643</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.007527747820519996</v>
+        <v>-0.01590419348047115</v>
       </c>
       <c r="L10">
-        <v>-0.0206084876176913</v>
+        <v>0.02247937531739</v>
       </c>
       <c r="M10">
-        <v>0.04137539802331911</v>
+        <v>0.4545035946773072</v>
       </c>
       <c r="N10">
-        <v>0.01024221051448374</v>
+        <v>0.3672214350535232</v>
       </c>
       <c r="O10">
-        <v>-0.001520026544277736</v>
-      </c>
-      <c r="P10">
-        <v>-0.02215431259886609</v>
-      </c>
-      <c r="Q10">
-        <v>-0.01198524847236131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4640887717533622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02781768180549307</v>
+        <v>0.06368588886901116</v>
       </c>
       <c r="C11">
-        <v>0.04214279637720676</v>
+        <v>-0.04607139697250794</v>
       </c>
       <c r="D11">
-        <v>0.04487199885318145</v>
+        <v>-0.005325263578312308</v>
       </c>
       <c r="E11">
-        <v>0.05026339906511976</v>
+        <v>-0.01630120899770322</v>
       </c>
       <c r="F11">
-        <v>0.01398391052861526</v>
+        <v>-0.01463665194864401</v>
       </c>
       <c r="G11">
-        <v>-0.005116299039876134</v>
+        <v>-0.0479863676876927</v>
       </c>
       <c r="H11">
-        <v>-0.03432283020666096</v>
+        <v>0.02461263696417808</v>
       </c>
       <c r="I11">
-        <v>0.03007547509689789</v>
+        <v>0.002901956036818502</v>
       </c>
       <c r="J11">
-        <v>0.007527747820519996</v>
+        <v>-0.01590419348047115</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.01013596931890165</v>
+        <v>-0.00406681902610834</v>
       </c>
       <c r="M11">
-        <v>-0.01493310733446258</v>
+        <v>0.03781743694988965</v>
       </c>
       <c r="N11">
-        <v>-0.0170036722806634</v>
+        <v>0.002811207868601861</v>
       </c>
       <c r="O11">
-        <v>0.05081787275393145</v>
-      </c>
-      <c r="P11">
-        <v>0.01435218486435556</v>
-      </c>
-      <c r="Q11">
-        <v>0.02469822656303015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.03518436945160874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02921765508056752</v>
+        <v>0.1554945818052659</v>
       </c>
       <c r="C12">
-        <v>0.01451473870632088</v>
+        <v>-0.01027333808085267</v>
       </c>
       <c r="D12">
-        <v>0.004628425863783848</v>
+        <v>0.03157247845139757</v>
       </c>
       <c r="E12">
-        <v>-0.002333681823322244</v>
+        <v>0.3515978767813258</v>
       </c>
       <c r="F12">
-        <v>0.7822078045362819</v>
+        <v>-0.04790638322387353</v>
       </c>
       <c r="G12">
-        <v>-0.005930634923724926</v>
+        <v>0.001754640395353893</v>
       </c>
       <c r="H12">
-        <v>0.0264424711760154</v>
+        <v>0.01341550807937787</v>
       </c>
       <c r="I12">
-        <v>0.2376385897847941</v>
+        <v>-0.04280202996630432</v>
       </c>
       <c r="J12">
-        <v>-0.0206084876176913</v>
+        <v>0.02247937531739</v>
       </c>
       <c r="K12">
-        <v>0.01013596931890165</v>
+        <v>-0.00406681902610834</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-0.03054595816267271</v>
+        <v>0.0003209584738995808</v>
       </c>
       <c r="N12">
-        <v>0.02698894630771657</v>
+        <v>0.04613567528958859</v>
       </c>
       <c r="O12">
-        <v>0.4603646380118078</v>
-      </c>
-      <c r="P12">
-        <v>0.4048577585025597</v>
-      </c>
-      <c r="Q12">
-        <v>0.4591883970831433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>-0.007085824929426184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01945088278080056</v>
+        <v>0.0361474200956196</v>
       </c>
       <c r="C13">
-        <v>0.001542705737490361</v>
+        <v>0.01323054174881991</v>
       </c>
       <c r="D13">
-        <v>0.006329809123048819</v>
+        <v>0.3532729856602586</v>
       </c>
       <c r="E13">
-        <v>-0.0219392114743644</v>
+        <v>0.007048234196493934</v>
       </c>
       <c r="F13">
-        <v>-0.01249013525752356</v>
+        <v>0.00155029237545091</v>
       </c>
       <c r="G13">
-        <v>0.009815698657528092</v>
+        <v>-0.1407550551384995</v>
       </c>
       <c r="H13">
-        <v>-0.02424729502127004</v>
+        <v>-0.01773261586147536</v>
       </c>
       <c r="I13">
-        <v>0.02099646581389249</v>
+        <v>0.04583339099319188</v>
       </c>
       <c r="J13">
-        <v>0.04137539802331911</v>
+        <v>0.4545035946773072</v>
       </c>
       <c r="K13">
-        <v>-0.01493310733446258</v>
+        <v>0.03781743694988965</v>
       </c>
       <c r="L13">
-        <v>-0.03054595816267271</v>
+        <v>0.0003209584738995808</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.0001203998818388231</v>
+        <v>0.5475633286345412</v>
       </c>
       <c r="O13">
-        <v>-0.004490398214785194</v>
-      </c>
-      <c r="P13">
-        <v>0.0129723309143967</v>
-      </c>
-      <c r="Q13">
-        <v>-0.01173665070988364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7276733690445898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2536911025000236</v>
+        <v>0.02653141937264484</v>
       </c>
       <c r="C14">
-        <v>-0.002239534165529527</v>
+        <v>-0.01706797551455956</v>
       </c>
       <c r="D14">
-        <v>0.02765700471305558</v>
+        <v>0.305550050465785</v>
       </c>
       <c r="E14">
-        <v>0.005521569534920615</v>
+        <v>-0.003662115831493388</v>
       </c>
       <c r="F14">
-        <v>0.03972893960164186</v>
+        <v>0.002229370646597225</v>
       </c>
       <c r="G14">
-        <v>0.4110996686051839</v>
+        <v>-0.09688066490159955</v>
       </c>
       <c r="H14">
-        <v>-0.05077318700199899</v>
+        <v>-0.03377818856896619</v>
       </c>
       <c r="I14">
-        <v>0.02829192800548991</v>
+        <v>0.01815254383835799</v>
       </c>
       <c r="J14">
-        <v>0.01024221051448374</v>
+        <v>0.3672214350535232</v>
       </c>
       <c r="K14">
-        <v>-0.0170036722806634</v>
+        <v>0.002811207868601861</v>
       </c>
       <c r="L14">
-        <v>0.02698894630771657</v>
+        <v>0.04613567528958859</v>
       </c>
       <c r="M14">
-        <v>0.0001203998818388231</v>
+        <v>0.5475633286345412</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01972888924992027</v>
-      </c>
-      <c r="P14">
-        <v>-0.01619743925958054</v>
-      </c>
-      <c r="Q14">
-        <v>0.02129361133410645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5097955169266553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.04368984462161956</v>
+        <v>0.01593119658695778</v>
       </c>
       <c r="C15">
-        <v>0.009932014960094186</v>
+        <v>0.003188072445159056</v>
       </c>
       <c r="D15">
-        <v>0.01884499910894566</v>
+        <v>0.3465863746126382</v>
       </c>
       <c r="E15">
-        <v>-0.02410622020878489</v>
+        <v>-0.005183992533121788</v>
       </c>
       <c r="F15">
-        <v>0.3894467328766719</v>
+        <v>-0.03950150510378449</v>
       </c>
       <c r="G15">
-        <v>0.02118052251389568</v>
+        <v>-0.1566191417391231</v>
       </c>
       <c r="H15">
-        <v>-0.01281487437047168</v>
+        <v>-0.015860418996134</v>
       </c>
       <c r="I15">
-        <v>-0.09075393370080823</v>
+        <v>0.02286076368136328</v>
       </c>
       <c r="J15">
-        <v>-0.001520026544277736</v>
+        <v>0.4640887717533622</v>
       </c>
       <c r="K15">
-        <v>0.05081787275393145</v>
+        <v>0.03518436945160874</v>
       </c>
       <c r="L15">
-        <v>0.4603646380118078</v>
+        <v>-0.007085824929426184</v>
       </c>
       <c r="M15">
-        <v>-0.004490398214785194</v>
+        <v>0.7276733690445898</v>
       </c>
       <c r="N15">
-        <v>0.01972888924992027</v>
+        <v>0.5097955169266553</v>
       </c>
       <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>0.5480562476995158</v>
-      </c>
-      <c r="Q15">
-        <v>0.7143647616385886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0.008420565447638929</v>
-      </c>
-      <c r="C16">
-        <v>-0.03322898478777196</v>
-      </c>
-      <c r="D16">
-        <v>0.01002883594311535</v>
-      </c>
-      <c r="E16">
-        <v>-0.02671558606433524</v>
-      </c>
-      <c r="F16">
-        <v>0.3538853469641045</v>
-      </c>
-      <c r="G16">
-        <v>-0.01936168857403885</v>
-      </c>
-      <c r="H16">
-        <v>0.001566799514676169</v>
-      </c>
-      <c r="I16">
-        <v>-0.03681389238350811</v>
-      </c>
-      <c r="J16">
-        <v>-0.02215431259886609</v>
-      </c>
-      <c r="K16">
-        <v>0.01435218486435556</v>
-      </c>
-      <c r="L16">
-        <v>0.4048577585025597</v>
-      </c>
-      <c r="M16">
-        <v>0.0129723309143967</v>
-      </c>
-      <c r="N16">
-        <v>-0.01619743925958054</v>
-      </c>
-      <c r="O16">
-        <v>0.5480562476995158</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>0.5102236357788095</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0.02386506008422327</v>
-      </c>
-      <c r="C17">
-        <v>-0.02636317822883774</v>
-      </c>
-      <c r="D17">
-        <v>0.01440604843062998</v>
-      </c>
-      <c r="E17">
-        <v>-0.02012320018406603</v>
-      </c>
-      <c r="F17">
-        <v>0.3752806077657277</v>
-      </c>
-      <c r="G17">
-        <v>-0.002297765705227358</v>
-      </c>
-      <c r="H17">
-        <v>-0.03674590533676931</v>
-      </c>
-      <c r="I17">
-        <v>-0.1103191554377321</v>
-      </c>
-      <c r="J17">
-        <v>-0.01198524847236131</v>
-      </c>
-      <c r="K17">
-        <v>0.02469822656303015</v>
-      </c>
-      <c r="L17">
-        <v>0.4591883970831433</v>
-      </c>
-      <c r="M17">
-        <v>-0.01173665070988364</v>
-      </c>
-      <c r="N17">
-        <v>0.02129361133410645</v>
-      </c>
-      <c r="O17">
-        <v>0.7143647616385886</v>
-      </c>
-      <c r="P17">
-        <v>0.5102236357788095</v>
-      </c>
-      <c r="Q17">
         <v>1</v>
       </c>
     </row>

--- a/Excel/MatriceDiCorrelazione.xlsx
+++ b/Excel/MatriceDiCorrelazione.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniele\Documents\Università\Magistrale\Data Mining\Project\DataMiningProject\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC48E9A1-F9CD-4472-9E9C-60F932A93163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +91,33 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,22 +158,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +259,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +311,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,14 +504,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,477 +573,451 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
-        <v>-0.008857333568200893</v>
+        <v>-8.8573335682008928E-3</v>
       </c>
       <c r="D2">
-        <v>0.02989870493551243</v>
+        <v>2.989870493551243E-2</v>
       </c>
       <c r="E2">
-        <v>0.3267140792001175</v>
+        <v>0.32671407920011752</v>
       </c>
       <c r="F2">
-        <v>0.0572008629072032</v>
+        <v>5.72008629072032E-2</v>
       </c>
       <c r="G2">
-        <v>-0.003714506044751713</v>
+        <v>-3.714506044751713E-3</v>
       </c>
       <c r="H2">
-        <v>-0.008439819385264004</v>
+        <v>-8.4398193852640042E-3</v>
       </c>
       <c r="I2">
-        <v>0.01659797726465686</v>
+        <v>1.6597977264656859E-2</v>
       </c>
       <c r="J2">
-        <v>0.03914635616502417</v>
+        <v>3.9146356165024168E-2</v>
       </c>
       <c r="K2">
-        <v>0.06368588886901116</v>
+        <v>6.3685888869011165E-2</v>
       </c>
       <c r="L2">
         <v>0.1554945818052659</v>
       </c>
       <c r="M2">
-        <v>0.0361474200956196</v>
+        <v>3.6147420095619602E-2</v>
       </c>
       <c r="N2">
-        <v>0.02653141937264484</v>
+        <v>2.6531419372644839E-2</v>
       </c>
       <c r="O2">
-        <v>0.01593119658695778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.5931196586957779E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.008857333568200893</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>-8.8573335682008928E-3</v>
       </c>
       <c r="D3">
-        <v>0.03084675392377743</v>
+        <v>3.0846753923777431E-2</v>
       </c>
       <c r="E3">
-        <v>-0.06914822571365474</v>
+        <v>-6.914822571365474E-2</v>
       </c>
       <c r="F3">
-        <v>0.03640557532628927</v>
+        <v>3.6405575326289269E-2</v>
       </c>
       <c r="G3">
-        <v>-0.01332220389611767</v>
+        <v>-1.3322203896117671E-2</v>
       </c>
       <c r="H3">
-        <v>0.05807576115516504</v>
+        <v>5.8075761155165037E-2</v>
       </c>
       <c r="I3">
-        <v>0.02409044437849948</v>
+        <v>2.4090444378499481E-2</v>
       </c>
       <c r="J3">
-        <v>0.008579173556845588</v>
+        <v>8.5791735568455877E-3</v>
       </c>
       <c r="K3">
-        <v>-0.04607139697250794</v>
+        <v>-4.6071396972507943E-2</v>
       </c>
       <c r="L3">
-        <v>-0.01027333808085267</v>
+        <v>-1.027333808085267E-2</v>
       </c>
       <c r="M3">
-        <v>0.01323054174881991</v>
+        <v>1.3230541748819911E-2</v>
       </c>
       <c r="N3">
-        <v>-0.01706797551455956</v>
+        <v>-1.7067975514559561E-2</v>
       </c>
       <c r="O3">
-        <v>0.003188072445159056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>3.188072445159056E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02989870493551243</v>
+        <v>2.989870493551243E-2</v>
       </c>
       <c r="C4">
-        <v>0.03084675392377743</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>3.0846753923777431E-2</v>
       </c>
       <c r="E4">
-        <v>-0.008841221533042688</v>
+        <v>-8.8412215330426879E-3</v>
       </c>
       <c r="F4">
-        <v>0.04570866851970576</v>
+        <v>4.5708668519705759E-2</v>
       </c>
       <c r="G4">
-        <v>0.1484113909491027</v>
+        <v>0.14841139094910269</v>
       </c>
       <c r="H4">
-        <v>-0.04031963892910632</v>
+        <v>-4.0319638929106318E-2</v>
       </c>
       <c r="I4">
-        <v>0.06094255804964673</v>
-      </c>
-      <c r="J4">
-        <v>0.7556400151399706</v>
+        <v>6.0942558049646732E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.75564001513997103</v>
       </c>
       <c r="K4">
-        <v>-0.005325263578312308</v>
+        <v>-5.325263578312308E-3</v>
       </c>
       <c r="L4">
-        <v>0.03157247845139757</v>
+        <v>3.1572478451397573E-2</v>
       </c>
       <c r="M4">
-        <v>0.3532729856602586</v>
+        <v>0.35327298566025861</v>
       </c>
       <c r="N4">
-        <v>0.305550050465785</v>
+        <v>0.30555005046578498</v>
       </c>
       <c r="O4">
-        <v>0.3465863746126382</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.34658637461263819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3267140792001175</v>
+        <v>0.32671407920011752</v>
       </c>
       <c r="C5">
-        <v>-0.06914822571365474</v>
+        <v>-6.914822571365474E-2</v>
       </c>
       <c r="D5">
-        <v>-0.008841221533042688</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+        <v>-8.8412215330426879E-3</v>
       </c>
       <c r="F5">
-        <v>-0.0109627746710919</v>
+        <v>-1.0962774671091901E-2</v>
       </c>
       <c r="G5">
-        <v>-0.02158582847570841</v>
+        <v>-2.1585828475708412E-2</v>
       </c>
       <c r="H5">
-        <v>0.01765821365974848</v>
+        <v>1.7658213659748481E-2</v>
       </c>
       <c r="I5">
-        <v>-0.04589090530029091</v>
+        <v>-4.5890905300290913E-2</v>
       </c>
       <c r="J5">
-        <v>0.01691176046973935</v>
+        <v>1.6911760469739349E-2</v>
       </c>
       <c r="K5">
-        <v>-0.01630120899770322</v>
+        <v>-1.630120899770322E-2</v>
       </c>
       <c r="L5">
-        <v>0.3515978767813258</v>
+        <v>0.35159787678132581</v>
       </c>
       <c r="M5">
-        <v>0.007048234196493934</v>
+        <v>7.0482341964939344E-3</v>
       </c>
       <c r="N5">
-        <v>-0.003662115831493388</v>
+        <v>-3.6621158314933881E-3</v>
       </c>
       <c r="O5">
-        <v>-0.005183992533121788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>-5.1839925331217881E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0572008629072032</v>
+        <v>5.72008629072032E-2</v>
       </c>
       <c r="C6">
-        <v>0.03640557532628927</v>
+        <v>3.6405575326289269E-2</v>
       </c>
       <c r="D6">
-        <v>0.04570866851970576</v>
+        <v>4.5708668519705759E-2</v>
       </c>
       <c r="E6">
-        <v>-0.0109627746710919</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>-1.0962774671091901E-2</v>
       </c>
       <c r="G6">
-        <v>0.02462115485353616</v>
+        <v>2.4621154853536161E-2</v>
       </c>
       <c r="H6">
-        <v>-0.002913121596655281</v>
+        <v>-2.913121596655281E-3</v>
       </c>
       <c r="I6">
-        <v>-0.02617646381808889</v>
+        <v>-2.6176463818088889E-2</v>
       </c>
       <c r="J6">
-        <v>0.03051814809457776</v>
+        <v>3.0518148094577761E-2</v>
       </c>
       <c r="K6">
-        <v>-0.01463665194864401</v>
+        <v>-1.4636651948644009E-2</v>
       </c>
       <c r="L6">
-        <v>-0.04790638322387353</v>
+        <v>-4.7906383223873528E-2</v>
       </c>
       <c r="M6">
-        <v>0.00155029237545091</v>
+        <v>1.5502923754509099E-3</v>
       </c>
       <c r="N6">
-        <v>0.002229370646597225</v>
+        <v>2.229370646597225E-3</v>
       </c>
       <c r="O6">
-        <v>-0.03950150510378449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>-3.9501505103784487E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.003714506044751713</v>
+        <v>-3.714506044751713E-3</v>
       </c>
       <c r="C7">
-        <v>-0.01332220389611767</v>
+        <v>-1.3322203896117671E-2</v>
       </c>
       <c r="D7">
-        <v>0.1484113909491027</v>
+        <v>0.14841139094910269</v>
       </c>
       <c r="E7">
-        <v>-0.02158582847570841</v>
+        <v>-2.1585828475708412E-2</v>
       </c>
       <c r="F7">
-        <v>0.02462115485353616</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>2.4621154853536161E-2</v>
       </c>
       <c r="H7">
-        <v>-0.01122481823876873</v>
+        <v>-1.122481823876873E-2</v>
       </c>
       <c r="I7">
-        <v>0.02711834718339705</v>
+        <v>2.7118347183397049E-2</v>
       </c>
       <c r="J7">
-        <v>0.2641089183292218</v>
+        <v>0.26410891832922179</v>
       </c>
       <c r="K7">
-        <v>-0.0479863676876927</v>
+        <v>-4.7986367687692703E-2</v>
       </c>
       <c r="L7">
-        <v>0.001754640395353893</v>
+        <v>1.7546403953538931E-3</v>
       </c>
       <c r="M7">
-        <v>-0.1407550551384995</v>
+        <v>-0.14075505513849951</v>
       </c>
       <c r="N7">
-        <v>-0.09688066490159955</v>
+        <v>-9.688066490159955E-2</v>
       </c>
       <c r="O7">
-        <v>-0.1566191417391231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>-0.15661914173912311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.008439819385264004</v>
+        <v>-8.4398193852640042E-3</v>
       </c>
       <c r="C8">
-        <v>0.05807576115516504</v>
+        <v>5.8075761155165037E-2</v>
       </c>
       <c r="D8">
-        <v>-0.04031963892910632</v>
+        <v>-4.0319638929106318E-2</v>
       </c>
       <c r="E8">
-        <v>0.01765821365974848</v>
+        <v>1.7658213659748481E-2</v>
       </c>
       <c r="F8">
-        <v>-0.002913121596655281</v>
+        <v>-2.913121596655281E-3</v>
       </c>
       <c r="G8">
-        <v>-0.01122481823876873</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+        <v>-1.122481823876873E-2</v>
       </c>
       <c r="I8">
-        <v>0.02399140087552394</v>
+        <v>2.3991400875523941E-2</v>
       </c>
       <c r="J8">
-        <v>-0.02287310702854754</v>
+        <v>-2.2873107028547539E-2</v>
       </c>
       <c r="K8">
-        <v>0.02461263696417808</v>
+        <v>2.4612636964178081E-2</v>
       </c>
       <c r="L8">
-        <v>0.01341550807937787</v>
+        <v>1.341550807937787E-2</v>
       </c>
       <c r="M8">
-        <v>-0.01773261586147536</v>
+        <v>-1.773261586147536E-2</v>
       </c>
       <c r="N8">
-        <v>-0.03377818856896619</v>
+        <v>-3.3778188568966187E-2</v>
       </c>
       <c r="O8">
-        <v>-0.015860418996134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>-1.5860418996133999E-2</v>
+      </c>
+      <c r="S8">
+        <f>MAX(C2:C15)</f>
+        <v>5.8075761155165037E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01659797726465686</v>
+        <v>1.6597977264656859E-2</v>
       </c>
       <c r="C9">
-        <v>0.02409044437849948</v>
+        <v>2.4090444378499481E-2</v>
       </c>
       <c r="D9">
-        <v>0.06094255804964673</v>
+        <v>6.0942558049646732E-2</v>
       </c>
       <c r="E9">
-        <v>-0.04589090530029091</v>
+        <v>-4.5890905300290913E-2</v>
       </c>
       <c r="F9">
-        <v>-0.02617646381808889</v>
+        <v>-2.6176463818088889E-2</v>
       </c>
       <c r="G9">
-        <v>0.02711834718339705</v>
+        <v>2.7118347183397049E-2</v>
       </c>
       <c r="H9">
-        <v>0.02399140087552394</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+        <v>2.3991400875523941E-2</v>
       </c>
       <c r="J9">
-        <v>0.06445940701886643</v>
+        <v>6.4459407018866433E-2</v>
       </c>
       <c r="K9">
-        <v>0.002901956036818502</v>
+        <v>2.901956036818502E-3</v>
       </c>
       <c r="L9">
-        <v>-0.04280202996630432</v>
+        <v>-4.280202996630432E-2</v>
       </c>
       <c r="M9">
-        <v>0.04583339099319188</v>
+        <v>4.5833390993191878E-2</v>
       </c>
       <c r="N9">
-        <v>0.01815254383835799</v>
+        <v>1.8152543838357991E-2</v>
       </c>
       <c r="O9">
-        <v>0.02286076368136328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>2.2860763681363281E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03914635616502417</v>
+        <v>3.9146356165024168E-2</v>
       </c>
       <c r="C10">
-        <v>0.008579173556845588</v>
-      </c>
-      <c r="D10">
-        <v>0.7556400151399706</v>
+        <v>8.5791735568455877E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.75564001513997103</v>
       </c>
       <c r="E10">
-        <v>0.01691176046973935</v>
+        <v>1.6911760469739349E-2</v>
       </c>
       <c r="F10">
-        <v>0.03051814809457776</v>
+        <v>3.0518148094577761E-2</v>
       </c>
       <c r="G10">
-        <v>0.2641089183292218</v>
+        <v>0.26410891832922179</v>
       </c>
       <c r="H10">
-        <v>-0.02287310702854754</v>
+        <v>-2.2873107028547539E-2</v>
       </c>
       <c r="I10">
-        <v>0.06445940701886643</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
+        <v>6.4459407018866433E-2</v>
       </c>
       <c r="K10">
-        <v>-0.01590419348047115</v>
+        <v>-1.5904193480471149E-2</v>
       </c>
       <c r="L10">
-        <v>0.02247937531739</v>
+        <v>2.2479375317389999E-2</v>
       </c>
       <c r="M10">
-        <v>0.4545035946773072</v>
+        <v>0.45450359467730722</v>
       </c>
       <c r="N10">
-        <v>0.3672214350535232</v>
+        <v>0.36722143505352323</v>
       </c>
       <c r="O10">
-        <v>0.4640887717533622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.46408877175336222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.06368588886901116</v>
+        <v>6.3685888869011165E-2</v>
       </c>
       <c r="C11">
-        <v>-0.04607139697250794</v>
+        <v>-4.6071396972507943E-2</v>
       </c>
       <c r="D11">
-        <v>-0.005325263578312308</v>
+        <v>-5.325263578312308E-3</v>
       </c>
       <c r="E11">
-        <v>-0.01630120899770322</v>
+        <v>-1.630120899770322E-2</v>
       </c>
       <c r="F11">
-        <v>-0.01463665194864401</v>
+        <v>-1.4636651948644009E-2</v>
       </c>
       <c r="G11">
-        <v>-0.0479863676876927</v>
+        <v>-4.7986367687692703E-2</v>
       </c>
       <c r="H11">
-        <v>0.02461263696417808</v>
+        <v>2.4612636964178081E-2</v>
       </c>
       <c r="I11">
-        <v>0.002901956036818502</v>
+        <v>2.901956036818502E-3</v>
       </c>
       <c r="J11">
-        <v>-0.01590419348047115</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
+        <v>-1.5904193480471149E-2</v>
       </c>
       <c r="L11">
-        <v>-0.00406681902610834</v>
+        <v>-4.0668190261083396E-3</v>
       </c>
       <c r="M11">
-        <v>0.03781743694988965</v>
+        <v>3.7817436949889649E-2</v>
       </c>
       <c r="N11">
-        <v>0.002811207868601861</v>
+        <v>2.811207868601861E-3</v>
       </c>
       <c r="O11">
-        <v>0.03518436945160874</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>3.5184369451608737E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,187 +1025,176 @@
         <v>0.1554945818052659</v>
       </c>
       <c r="C12">
-        <v>-0.01027333808085267</v>
+        <v>-1.027333808085267E-2</v>
       </c>
       <c r="D12">
-        <v>0.03157247845139757</v>
+        <v>3.1572478451397573E-2</v>
       </c>
       <c r="E12">
-        <v>0.3515978767813258</v>
+        <v>0.35159787678132581</v>
       </c>
       <c r="F12">
-        <v>-0.04790638322387353</v>
+        <v>-4.7906383223873528E-2</v>
       </c>
       <c r="G12">
-        <v>0.001754640395353893</v>
+        <v>1.7546403953538931E-3</v>
       </c>
       <c r="H12">
-        <v>0.01341550807937787</v>
+        <v>1.341550807937787E-2</v>
       </c>
       <c r="I12">
-        <v>-0.04280202996630432</v>
+        <v>-4.280202996630432E-2</v>
       </c>
       <c r="J12">
-        <v>0.02247937531739</v>
+        <v>2.2479375317389999E-2</v>
       </c>
       <c r="K12">
-        <v>-0.00406681902610834</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
+        <v>-4.0668190261083396E-3</v>
       </c>
       <c r="M12">
-        <v>0.0003209584738995808</v>
+        <v>3.209584738995808E-4</v>
       </c>
       <c r="N12">
-        <v>0.04613567528958859</v>
+        <v>4.613567528958859E-2</v>
       </c>
       <c r="O12">
-        <v>-0.007085824929426184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>-7.0858249294261837E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0361474200956196</v>
+        <v>3.6147420095619602E-2</v>
       </c>
       <c r="C13">
-        <v>0.01323054174881991</v>
+        <v>1.3230541748819911E-2</v>
       </c>
       <c r="D13">
-        <v>0.3532729856602586</v>
+        <v>0.35327298566025861</v>
       </c>
       <c r="E13">
-        <v>0.007048234196493934</v>
+        <v>7.0482341964939344E-3</v>
       </c>
       <c r="F13">
-        <v>0.00155029237545091</v>
+        <v>1.5502923754509099E-3</v>
       </c>
       <c r="G13">
-        <v>-0.1407550551384995</v>
+        <v>-0.14075505513849951</v>
       </c>
       <c r="H13">
-        <v>-0.01773261586147536</v>
+        <v>-1.773261586147536E-2</v>
       </c>
       <c r="I13">
-        <v>0.04583339099319188</v>
-      </c>
-      <c r="J13">
-        <v>0.4545035946773072</v>
+        <v>4.5833390993191878E-2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.45450359467730722</v>
       </c>
       <c r="K13">
-        <v>0.03781743694988965</v>
+        <v>3.7817436949889649E-2</v>
       </c>
       <c r="L13">
-        <v>0.0003209584738995808</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
+        <v>3.209584738995808E-4</v>
       </c>
       <c r="N13">
-        <v>0.5475633286345412</v>
+        <v>0.54756332863454116</v>
       </c>
       <c r="O13">
-        <v>0.7276733690445898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.72767336904458979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02653141937264484</v>
+        <v>2.6531419372644839E-2</v>
       </c>
       <c r="C14">
-        <v>-0.01706797551455956</v>
+        <v>-1.7067975514559561E-2</v>
       </c>
       <c r="D14">
-        <v>0.305550050465785</v>
+        <v>0.30555005046578498</v>
       </c>
       <c r="E14">
-        <v>-0.003662115831493388</v>
+        <v>-3.6621158314933881E-3</v>
       </c>
       <c r="F14">
-        <v>0.002229370646597225</v>
+        <v>2.229370646597225E-3</v>
       </c>
       <c r="G14">
-        <v>-0.09688066490159955</v>
+        <v>-9.688066490159955E-2</v>
       </c>
       <c r="H14">
-        <v>-0.03377818856896619</v>
+        <v>-3.3778188568966187E-2</v>
       </c>
       <c r="I14">
-        <v>0.01815254383835799</v>
+        <v>1.8152543838357991E-2</v>
       </c>
       <c r="J14">
-        <v>0.3672214350535232</v>
+        <v>0.36722143505352323</v>
       </c>
       <c r="K14">
-        <v>0.002811207868601861</v>
+        <v>2.811207868601861E-3</v>
       </c>
       <c r="L14">
-        <v>0.04613567528958859</v>
-      </c>
-      <c r="M14">
-        <v>0.5475633286345412</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
+        <v>4.613567528958859E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.54756332863454116</v>
       </c>
       <c r="O14">
-        <v>0.5097955169266553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.50979551692665526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01593119658695778</v>
+        <v>1.5931196586957779E-2</v>
       </c>
       <c r="C15">
-        <v>0.003188072445159056</v>
+        <v>3.188072445159056E-3</v>
       </c>
       <c r="D15">
-        <v>0.3465863746126382</v>
+        <v>0.34658637461263819</v>
       </c>
       <c r="E15">
-        <v>-0.005183992533121788</v>
+        <v>-5.1839925331217881E-3</v>
       </c>
       <c r="F15">
-        <v>-0.03950150510378449</v>
+        <v>-3.9501505103784487E-2</v>
       </c>
       <c r="G15">
-        <v>-0.1566191417391231</v>
+        <v>-0.15661914173912311</v>
       </c>
       <c r="H15">
-        <v>-0.015860418996134</v>
+        <v>-1.5860418996133999E-2</v>
       </c>
       <c r="I15">
-        <v>0.02286076368136328</v>
+        <v>2.2860763681363281E-2</v>
       </c>
       <c r="J15">
-        <v>0.4640887717533622</v>
+        <v>0.46408877175336222</v>
       </c>
       <c r="K15">
-        <v>0.03518436945160874</v>
+        <v>3.5184369451608737E-2</v>
       </c>
       <c r="L15">
-        <v>-0.007085824929426184</v>
-      </c>
-      <c r="M15">
-        <v>0.7276733690445898</v>
-      </c>
-      <c r="N15">
-        <v>0.5097955169266553</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
+        <v>-7.0858249294261837E-3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.72767336904458979</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.50979551692665526</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/MatriceDiCorrelazione.xlsx
+++ b/Excel/MatriceDiCorrelazione.xlsx
@@ -1,37 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniele\Documents\Università\Magistrale\Data Mining\Project\DataMiningProject\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC48E9A1-F9CD-4472-9E9C-60F932A93163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Age</t>
   </si>
@@ -57,29 +43,20 @@
     <t>StockOptionLevel</t>
   </si>
   <si>
-    <t>TotalWorkingYears</t>
-  </si>
-  <si>
     <t>TrainingTimesLastYear</t>
   </si>
   <si>
-    <t>YearsAtCompany</t>
-  </si>
-  <si>
     <t>YearsInCurrentRole</t>
   </si>
   <si>
-    <t>YearsSinceLastPromotion</t>
-  </si>
-  <si>
-    <t>YearsWithCurrManager</t>
+    <t>FractionYearsAtCompany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,33 +68,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,34 +108,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -227,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,32 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" customWidth="1"/>
-    <col min="14" max="14" width="26.44140625" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,635 +450,500 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
-        <v>-8.8573335682008928E-3</v>
+        <v>-0.004407389585395352</v>
       </c>
       <c r="D2">
-        <v>2.989870493551243E-2</v>
+        <v>-0.009445330059187773</v>
       </c>
       <c r="E2">
-        <v>0.32671407920011752</v>
+        <v>-0.06418327696278896</v>
       </c>
       <c r="F2">
-        <v>5.72008629072032E-2</v>
+        <v>-0.002174164332801656</v>
       </c>
       <c r="G2">
-        <v>-3.714506044751713E-3</v>
+        <v>0.02560189868729616</v>
       </c>
       <c r="H2">
-        <v>-8.4398193852640042E-3</v>
+        <v>0.01938835067955706</v>
       </c>
       <c r="I2">
-        <v>1.6597977264656859E-2</v>
+        <v>-0.006663851851553421</v>
       </c>
       <c r="J2">
-        <v>3.9146356165024168E-2</v>
+        <v>-0.0511869461105797</v>
       </c>
       <c r="K2">
-        <v>6.3685888869011165E-2</v>
+        <v>0.01071094400621186</v>
       </c>
       <c r="L2">
-        <v>0.1554945818052659</v>
+        <v>-0.04263412757303985</v>
       </c>
       <c r="M2">
-        <v>3.6147420095619602E-2</v>
-      </c>
-      <c r="N2">
-        <v>2.6531419372644839E-2</v>
-      </c>
-      <c r="O2">
-        <v>1.5931196586957779E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.007794943435604932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-8.8573335682008928E-3</v>
+        <v>-0.004407389585395352</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3.0846753923777431E-2</v>
+        <v>-0.02919403677384018</v>
       </c>
       <c r="E3">
-        <v>-6.914822571365474E-2</v>
+        <v>0.05286905725090873</v>
       </c>
       <c r="F3">
-        <v>3.6405575326289269E-2</v>
+        <v>0.3182986097005055</v>
       </c>
       <c r="G3">
-        <v>-1.3322203896117671E-2</v>
+        <v>0.0507762662661781</v>
       </c>
       <c r="H3">
-        <v>5.8075761155165037E-2</v>
+        <v>-0.007825517969161082</v>
       </c>
       <c r="I3">
-        <v>2.4090444378499481E-2</v>
+        <v>-0.0313002246122794</v>
       </c>
       <c r="J3">
-        <v>8.5791735568455877E-3</v>
+        <v>0.02054063643662493</v>
       </c>
       <c r="K3">
-        <v>-4.6071396972507943E-2</v>
+        <v>0.01467609731272657</v>
       </c>
       <c r="L3">
-        <v>-1.027333808085267E-2</v>
+        <v>0.06181434173712705</v>
       </c>
       <c r="M3">
-        <v>1.3230541748819911E-2</v>
-      </c>
-      <c r="N3">
-        <v>-1.7067975514559561E-2</v>
-      </c>
-      <c r="O3">
-        <v>3.188072445159056E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.1052674037906656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.989870493551243E-2</v>
+        <v>-0.009445330059187773</v>
       </c>
       <c r="C4">
-        <v>3.0846753923777431E-2</v>
+        <v>-0.02919403677384018</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>-8.8412215330426879E-3</v>
+        <v>-0.02201947463195175</v>
       </c>
       <c r="F4">
-        <v>4.5708668519705759E-2</v>
+        <v>-0.07746678096094403</v>
       </c>
       <c r="G4">
-        <v>0.14841139094910269</v>
+        <v>0.03571044914517064</v>
       </c>
       <c r="H4">
-        <v>-4.0319638929106318E-2</v>
+        <v>-0.04042863911144116</v>
       </c>
       <c r="I4">
-        <v>6.0942558049646732E-2</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.75564001513997103</v>
+        <v>0.01032312508915527</v>
+      </c>
+      <c r="J4">
+        <v>0.01726761067941146</v>
       </c>
       <c r="K4">
-        <v>-5.325263578312308E-3</v>
+        <v>0.004272185345723767</v>
       </c>
       <c r="L4">
-        <v>3.1572478451397573E-2</v>
+        <v>0.02251315295031048</v>
       </c>
       <c r="M4">
-        <v>0.35327298566025861</v>
-      </c>
-      <c r="N4">
-        <v>0.30555005046578498</v>
-      </c>
-      <c r="O4">
-        <v>0.34658637461263819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.05299657926938193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.32671407920011752</v>
+        <v>-0.06418327696278896</v>
       </c>
       <c r="C5">
-        <v>-6.914822571365474E-2</v>
+        <v>0.05286905725090873</v>
       </c>
       <c r="D5">
-        <v>-8.8412215330426879E-3</v>
+        <v>-0.02201947463195175</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>-1.0962774671091901E-2</v>
+        <v>0.06671844055472954</v>
       </c>
       <c r="G5">
-        <v>-2.1585828475708412E-2</v>
+        <v>0.04324115706495809</v>
       </c>
       <c r="H5">
-        <v>1.7658213659748481E-2</v>
+        <v>0.08166894487868023</v>
       </c>
       <c r="I5">
-        <v>-4.5890905300290913E-2</v>
+        <v>-0.02806504119545197</v>
       </c>
       <c r="J5">
-        <v>1.6911760469739349E-2</v>
+        <v>-0.005531211187703362</v>
       </c>
       <c r="K5">
-        <v>-1.630120899770322E-2</v>
+        <v>0.008930655619149004</v>
       </c>
       <c r="L5">
-        <v>0.35159787678132581</v>
+        <v>0.245629148459164</v>
       </c>
       <c r="M5">
-        <v>7.0482341964939344E-3</v>
-      </c>
-      <c r="N5">
-        <v>-3.6621158314933881E-3</v>
-      </c>
-      <c r="O5">
-        <v>-5.1839925331217881E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.2247271885892644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.72008629072032E-2</v>
+        <v>-0.002174164332801656</v>
       </c>
       <c r="C6">
-        <v>3.6405575326289269E-2</v>
+        <v>0.3182986097005055</v>
       </c>
       <c r="D6">
-        <v>4.5708668519705759E-2</v>
+        <v>-0.07746678096094403</v>
       </c>
       <c r="E6">
-        <v>-1.0962774671091901E-2</v>
+        <v>0.06671844055472954</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4621154853536161E-2</v>
+        <v>0.04048413334297389</v>
       </c>
       <c r="H6">
-        <v>-2.913121596655281E-3</v>
+        <v>0.01740605839400523</v>
       </c>
       <c r="I6">
-        <v>-2.6176463818088889E-2</v>
+        <v>-0.01437700236916964</v>
       </c>
       <c r="J6">
-        <v>3.0518148094577761E-2</v>
+        <v>-0.009221282272871698</v>
       </c>
       <c r="K6">
-        <v>-1.4636651948644009E-2</v>
+        <v>0.01747115384077274</v>
       </c>
       <c r="L6">
-        <v>-4.7906383223873528E-2</v>
+        <v>0.04327640252371361</v>
       </c>
       <c r="M6">
-        <v>1.5502923754509099E-3</v>
-      </c>
-      <c r="N6">
-        <v>2.229370646597225E-3</v>
-      </c>
-      <c r="O6">
-        <v>-3.9501505103784487E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.1774474205711608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-3.714506044751713E-3</v>
+        <v>0.02560189868729616</v>
       </c>
       <c r="C7">
-        <v>-1.3322203896117671E-2</v>
+        <v>0.0507762662661781</v>
       </c>
       <c r="D7">
-        <v>0.14841139094910269</v>
+        <v>0.03571044914517064</v>
       </c>
       <c r="E7">
-        <v>-2.1585828475708412E-2</v>
+        <v>0.04324115706495809</v>
       </c>
       <c r="F7">
-        <v>2.4621154853536161E-2</v>
+        <v>0.04048413334297389</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>-1.122481823876873E-2</v>
+        <v>0.01074812975173878</v>
       </c>
       <c r="I7">
-        <v>2.7118347183397049E-2</v>
+        <v>0.009591380645638952</v>
       </c>
       <c r="J7">
-        <v>0.26410891832922179</v>
+        <v>-0.009058541771261735</v>
       </c>
       <c r="K7">
-        <v>-4.7986367687692703E-2</v>
+        <v>-0.005000898879580711</v>
       </c>
       <c r="L7">
-        <v>1.7546403953538931E-3</v>
+        <v>0.002480968446503276</v>
       </c>
       <c r="M7">
-        <v>-0.14075505513849951</v>
-      </c>
-      <c r="N7">
-        <v>-9.688066490159955E-2</v>
-      </c>
-      <c r="O7">
-        <v>-0.15661914173912311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.01908650557325075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-8.4398193852640042E-3</v>
+        <v>0.01938835067955706</v>
       </c>
       <c r="C8">
-        <v>5.8075761155165037E-2</v>
+        <v>-0.007825517969161082</v>
       </c>
       <c r="D8">
-        <v>-4.0319638929106318E-2</v>
+        <v>-0.04042863911144116</v>
       </c>
       <c r="E8">
-        <v>1.7658213659748481E-2</v>
+        <v>0.08166894487868023</v>
       </c>
       <c r="F8">
-        <v>-2.913121596655281E-3</v>
+        <v>0.01740605839400523</v>
       </c>
       <c r="G8">
-        <v>-1.122481823876873E-2</v>
+        <v>0.01074812975173878</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2.3991400875523941E-2</v>
+        <v>-0.009606226059702889</v>
       </c>
       <c r="J8">
-        <v>-2.2873107028547539E-2</v>
+        <v>0.02371640586928043</v>
       </c>
       <c r="K8">
-        <v>2.4612636964178081E-2</v>
+        <v>-0.00615777429868305</v>
       </c>
       <c r="L8">
-        <v>1.341550807937787E-2</v>
+        <v>-0.2267101553145274</v>
       </c>
       <c r="M8">
-        <v>-1.773261586147536E-2</v>
-      </c>
-      <c r="N8">
-        <v>-3.3778188568966187E-2</v>
-      </c>
-      <c r="O8">
-        <v>-1.5860418996133999E-2</v>
-      </c>
-      <c r="S8">
-        <f>MAX(C2:C15)</f>
-        <v>5.8075761155165037E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.007998681668815425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.6597977264656859E-2</v>
+        <v>-0.006663851851553421</v>
       </c>
       <c r="C9">
-        <v>2.4090444378499481E-2</v>
+        <v>-0.0313002246122794</v>
       </c>
       <c r="D9">
-        <v>6.0942558049646732E-2</v>
+        <v>0.01032312508915527</v>
       </c>
       <c r="E9">
-        <v>-4.5890905300290913E-2</v>
+        <v>-0.02806504119545197</v>
       </c>
       <c r="F9">
-        <v>-2.6176463818088889E-2</v>
+        <v>-0.01437700236916964</v>
       </c>
       <c r="G9">
-        <v>2.7118347183397049E-2</v>
+        <v>0.009591380645638952</v>
       </c>
       <c r="H9">
-        <v>2.3991400875523941E-2</v>
+        <v>-0.009606226059702889</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>6.4459407018866433E-2</v>
+        <v>0.05048371372246016</v>
       </c>
       <c r="K9">
-        <v>2.901956036818502E-3</v>
+        <v>0.0255278494438398</v>
       </c>
       <c r="L9">
-        <v>-4.280202996630432E-2</v>
+        <v>-0.00591535204919896</v>
       </c>
       <c r="M9">
-        <v>4.5833390993191878E-2</v>
-      </c>
-      <c r="N9">
-        <v>1.8152543838357991E-2</v>
-      </c>
-      <c r="O9">
-        <v>2.2860763681363281E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.04560087939701955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.9146356165024168E-2</v>
+        <v>-0.0511869461105797</v>
       </c>
       <c r="C10">
-        <v>8.5791735568455877E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.75564001513997103</v>
+        <v>0.02054063643662493</v>
+      </c>
+      <c r="D10">
+        <v>0.01726761067941146</v>
       </c>
       <c r="E10">
-        <v>1.6911760469739349E-2</v>
+        <v>-0.005531211187703362</v>
       </c>
       <c r="F10">
-        <v>3.0518148094577761E-2</v>
+        <v>-0.009221282272871698</v>
       </c>
       <c r="G10">
-        <v>0.26410891832922179</v>
+        <v>-0.009058541771261735</v>
       </c>
       <c r="H10">
-        <v>-2.2873107028547539E-2</v>
+        <v>0.02371640586928043</v>
       </c>
       <c r="I10">
-        <v>6.4459407018866433E-2</v>
+        <v>0.05048371372246016</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>-1.5904193480471149E-2</v>
+        <v>-0.04127048512939705</v>
       </c>
       <c r="L10">
-        <v>2.2479375317389999E-2</v>
+        <v>0.02335101471740053</v>
       </c>
       <c r="M10">
-        <v>0.45450359467730722</v>
-      </c>
-      <c r="N10">
-        <v>0.36722143505352323</v>
-      </c>
-      <c r="O10">
-        <v>0.46408877175336222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.01099369171828426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.3685888869011165E-2</v>
+        <v>0.01071094400621186</v>
       </c>
       <c r="C11">
-        <v>-4.6071396972507943E-2</v>
+        <v>0.01467609731272657</v>
       </c>
       <c r="D11">
-        <v>-5.325263578312308E-3</v>
+        <v>0.004272185345723767</v>
       </c>
       <c r="E11">
-        <v>-1.630120899770322E-2</v>
+        <v>0.008930655619149004</v>
       </c>
       <c r="F11">
-        <v>-1.4636651948644009E-2</v>
+        <v>0.01747115384077274</v>
       </c>
       <c r="G11">
-        <v>-4.7986367687692703E-2</v>
+        <v>-0.005000898879580711</v>
       </c>
       <c r="H11">
-        <v>2.4612636964178081E-2</v>
+        <v>-0.00615777429868305</v>
       </c>
       <c r="I11">
-        <v>2.901956036818502E-3</v>
+        <v>0.0255278494438398</v>
       </c>
       <c r="J11">
-        <v>-1.5904193480471149E-2</v>
+        <v>-0.04127048512939705</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>-4.0668190261083396E-3</v>
+        <v>8.172910943437797E-05</v>
       </c>
       <c r="M11">
-        <v>3.7817436949889649E-2</v>
-      </c>
-      <c r="N11">
-        <v>2.811207868601861E-3</v>
-      </c>
-      <c r="O11">
-        <v>3.5184369451608737E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.01198284422224027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1554945818052659</v>
+        <v>-0.04263412757303985</v>
       </c>
       <c r="C12">
-        <v>-1.027333808085267E-2</v>
+        <v>0.06181434173712705</v>
       </c>
       <c r="D12">
-        <v>3.1572478451397573E-2</v>
+        <v>0.02251315295031048</v>
       </c>
       <c r="E12">
-        <v>0.35159787678132581</v>
+        <v>0.245629148459164</v>
       </c>
       <c r="F12">
-        <v>-4.7906383223873528E-2</v>
+        <v>0.04327640252371361</v>
       </c>
       <c r="G12">
-        <v>1.7546403953538931E-3</v>
+        <v>0.002480968446503276</v>
       </c>
       <c r="H12">
-        <v>1.341550807937787E-2</v>
+        <v>-0.2267101553145274</v>
       </c>
       <c r="I12">
-        <v>-4.280202996630432E-2</v>
+        <v>-0.00591535204919896</v>
       </c>
       <c r="J12">
-        <v>2.2479375317389999E-2</v>
+        <v>0.02335101471740053</v>
       </c>
       <c r="K12">
-        <v>-4.0668190261083396E-3</v>
+        <v>8.172910943437797E-05</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>3.209584738995808E-4</v>
-      </c>
-      <c r="N12">
-        <v>4.613567528958859E-2</v>
-      </c>
-      <c r="O12">
-        <v>-7.0858249294261837E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>-0.1301769383828658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.6147420095619602E-2</v>
+        <v>0.007794943435604932</v>
       </c>
       <c r="C13">
-        <v>1.3230541748819911E-2</v>
+        <v>0.1052674037906656</v>
       </c>
       <c r="D13">
-        <v>0.35327298566025861</v>
+        <v>-0.05299657926938193</v>
       </c>
       <c r="E13">
-        <v>7.0482341964939344E-3</v>
+        <v>-0.2247271885892644</v>
       </c>
       <c r="F13">
-        <v>1.5502923754509099E-3</v>
+        <v>0.1774474205711608</v>
       </c>
       <c r="G13">
-        <v>-0.14075505513849951</v>
+        <v>0.01908650557325075</v>
       </c>
       <c r="H13">
-        <v>-1.773261586147536E-2</v>
+        <v>-0.007998681668815425</v>
       </c>
       <c r="I13">
-        <v>4.5833390993191878E-2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.45450359467730722</v>
+        <v>-0.04560087939701955</v>
+      </c>
+      <c r="J13">
+        <v>-0.01099369171828426</v>
       </c>
       <c r="K13">
-        <v>3.7817436949889649E-2</v>
+        <v>-0.01198284422224027</v>
       </c>
       <c r="L13">
-        <v>3.209584738995808E-4</v>
-      </c>
-      <c r="N13">
-        <v>0.54756332863454116</v>
-      </c>
-      <c r="O13">
-        <v>0.72767336904458979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2.6531419372644839E-2</v>
-      </c>
-      <c r="C14">
-        <v>-1.7067975514559561E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.30555005046578498</v>
-      </c>
-      <c r="E14">
-        <v>-3.6621158314933881E-3</v>
-      </c>
-      <c r="F14">
-        <v>2.229370646597225E-3</v>
-      </c>
-      <c r="G14">
-        <v>-9.688066490159955E-2</v>
-      </c>
-      <c r="H14">
-        <v>-3.3778188568966187E-2</v>
-      </c>
-      <c r="I14">
-        <v>1.8152543838357991E-2</v>
-      </c>
-      <c r="J14">
-        <v>0.36722143505352323</v>
-      </c>
-      <c r="K14">
-        <v>2.811207868601861E-3</v>
-      </c>
-      <c r="L14">
-        <v>4.613567528958859E-2</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.54756332863454116</v>
-      </c>
-      <c r="O14">
-        <v>0.50979551692665526</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1.5931196586957779E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.188072445159056E-3</v>
-      </c>
-      <c r="D15">
-        <v>0.34658637461263819</v>
-      </c>
-      <c r="E15">
-        <v>-5.1839925331217881E-3</v>
-      </c>
-      <c r="F15">
-        <v>-3.9501505103784487E-2</v>
-      </c>
-      <c r="G15">
-        <v>-0.15661914173912311</v>
-      </c>
-      <c r="H15">
-        <v>-1.5860418996133999E-2</v>
-      </c>
-      <c r="I15">
-        <v>2.2860763681363281E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.46408877175336222</v>
-      </c>
-      <c r="K15">
-        <v>3.5184369451608737E-2</v>
-      </c>
-      <c r="L15">
-        <v>-7.0858249294261837E-3</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.72767336904458979</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.50979551692665526</v>
+        <v>-0.1301769383828658</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>